--- a/Springboot_excel_download/src/main/java/com/demo/util/AnimalsWithImageAndHeading.xlsx
+++ b/Springboot_excel_download/src/main/java/com/demo/util/AnimalsWithImageAndHeading.xlsx
@@ -190,9 +190,10 @@
       <name val="Calibri"/>
       <sz val="16.0"/>
       <b val="true"/>
+      <color indexed="9"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +210,18 @@
         <fgColor rgb="00008B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -218,11 +229,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -230,6 +259,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -246,7 +371,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -265,7 +390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1066800" cy="381000"/>
+          <a:ext cx="1066800" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -285,7 +410,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="7.859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="35.33984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -315,322 +446,322 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="n" s="14">
         <v>70.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="n" s="15">
         <v>2.0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="n" s="20">
         <v>15.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="n" s="21">
         <v>3.0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="24">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="n" s="26">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="n" s="27">
         <v>4.0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="28">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="n" s="32">
         <v>20.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="n" s="33">
         <v>5.0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="34">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="35">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="36">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="37">
         <v>15</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="n" s="38">
         <v>14.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="n" s="39">
         <v>6.0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="40">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="41">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="42">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="43">
         <v>29</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="n" s="44">
         <v>30.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="n" s="45">
         <v>7.0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="46">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="47">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="48">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="n" s="50">
         <v>25.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="52">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="53">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="54">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="55">
         <v>34</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="n" s="56">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="n" s="57">
         <v>9.0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="58">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="59">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="60">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="61">
         <v>37</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="n" s="62">
         <v>20.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="n" s="63">
         <v>10.0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="64">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="65">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="66">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="67">
         <v>22</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="n" s="68">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="n" s="69">
         <v>11.0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="70">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="71">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="72">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="73">
         <v>29</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="n" s="74">
         <v>30.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="n" s="75">
         <v>12.0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="76">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="77">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="78">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="79">
         <v>22</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="n" s="80">
         <v>25.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="n" s="81">
         <v>13.0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="82">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="83">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="84">
         <v>45</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="85">
         <v>19</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="n" s="86">
         <v>13.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="n" s="87">
         <v>14.0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="88">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="89">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="90">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="91">
         <v>49</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" t="n" s="92">
         <v>60.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="n" s="93">
         <v>15.0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="94">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="95">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="96">
         <v>51</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="97">
         <v>52</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="n" s="98">
         <v>70.0</v>
       </c>
     </row>
